--- a/ScenarioBuilder/roostify-test-configuration.xlsx
+++ b/ScenarioBuilder/roostify-test-configuration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>Test Suite</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>C:\Users\E6430\Desktop\GitHub\ScenarioBuilder\src\test\resources\screenshots\27-10-2017_16-19-52-validateOptionsForPurchase.png</t>
+  </si>
+  <si>
+    <t>C:\Users\E6430\Desktop\GitHub\workcode\ScenarioBuilder\src\test\resources\screenshots\03-11-2017_13-48-01-validateOptionsForPurchase.png</t>
+  </si>
+  <si>
+    <t>C:\Users\E6430\Desktop\GitHub\workcode\ScenarioBuilder\src\test\resources\screenshots\03-11-2017_14-08-13-validateOptionsForPurchase.png</t>
+  </si>
+  <si>
+    <t>C:\Users\E6430\Desktop\GitHub\workcode\ScenarioBuilder\src\test\resources\screenshots\03-11-2017_14-14-47-validateOptionsForPurchase.png</t>
   </si>
 </sst>
 </file>
@@ -209,7 +218,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +251,74 @@
       <color indexed="10"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="13"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="13"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="13"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="13"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="13"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="13"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="13"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="13"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +345,16 @@
         <bgColor indexed="10"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -287,7 +372,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -306,6 +391,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
@@ -777,11 +884,11 @@
         <v>42</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="40" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/ScenarioBuilder/roostify-test-configuration.xlsx
+++ b/ScenarioBuilder/roostify-test-configuration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>Test Suite</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>C:\Users\E6430\Desktop\GitHub\workcode\ScenarioBuilder\src\test\resources\screenshots\03-11-2017_14-14-47-validateOptionsForPurchase.png</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Desktop\GitHub\workcode\ScenarioBuilder\src\test\resources\screenshots\03-11-2017_17-24-01-validateOptionsForPurchase.png</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +300,12 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="13"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
       <b val="true"/>
     </font>
     <font>
@@ -372,7 +381,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -413,6 +422,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
@@ -884,11 +895,11 @@
         <v>42</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="42" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8">
